--- a/ontology_test.xlsx
+++ b/ontology_test.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval Mor\.vscode\WDM_Information_Extraction_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF296B0-B400-4E76-986E-9B288F8CF0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689452F3-73D2-4B8C-8B03-CBA3146DE8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{548C1566-6856-4BDD-9697-4AAA73F1E7D0}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{548C1566-6856-4BDD-9697-4AAA73F1E7D0}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="capital" sheetId="2" r:id="rId2"/>
-    <sheet name="prime" sheetId="3" r:id="rId3"/>
-    <sheet name="govern" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="capital" sheetId="2" r:id="rId3"/>
+    <sheet name="prime" sheetId="3" r:id="rId4"/>
+    <sheet name="govern" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$D$2242</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">capital!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">govern!$A$1:$D$217</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">prime!$A$1:$D$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">capital!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">govern!$A$1:$D$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prime!$A$1:$D$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10576" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11440" uniqueCount="1216">
   <si>
     <t>.</t>
   </si>
@@ -2924,6 +2926,774 @@
   </si>
   <si>
     <t>http://en.wikipedia.org/capital_of</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Unitary_state&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/government_in&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Togo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Semi-presidential_system&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Cape_Verde&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Parliamentary_republic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Israel&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/One-party_state&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/China&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Guyana&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Constitutional_monarchy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Aruba&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Devolution&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Hong_Kong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Republic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Argentina&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Presidential_system&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Puerto_Rico&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Centralized_government&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Russia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/S%C3%A3o_Tom%C3%A9_and_Pr%C3%ADncipe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Australia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Dependent_territory&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Montserrat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Parliamentary_system&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Falkland_Islands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/El_Salvador&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Seychelles&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Latvia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Assembly-independent&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Myanmar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/San_Marino&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Taiwan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Cook_Islands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Serbia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/French_Polynesia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Guinea&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Cyprus&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Guam&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Costa_Rica&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Semi-direct_democracy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Switzerland&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Qatar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Vietnam&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Federation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Nepal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Turkmenistan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/The_Gambia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Uganda&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Monaco&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Japan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Andorra&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Turks_and_Caicos_Islands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Saint_Kitts_and_Nevis&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Malawi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Dictatorship&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Djibouti&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Dominant-party_system&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Cameroon&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Tajikistan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Burundi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Nigeria&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Dominican_Republic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Guinea-Bissau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Sweden&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Non-partisan_democracy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Niue&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Socialist_state&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/North_Korea&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Georgia_(country)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Papua_New_Guinea&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Luxembourg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Ukraine&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Dominant-party&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Gabon&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Faroe_Islands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Nauru&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Lesotho&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Slovenia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Isle_of_Man&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Botswana&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Equatorial_Guinea&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Malta&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Cuba&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Marshall_Islands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Military_junta&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Somalia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Comoros&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/State_of_Palestine&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Canada&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/United_States&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Liberia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/The_Bahamas&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Federal_state&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Venezuela&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Wallis_and_Futuna&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Austria&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Vanuatu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Tunisia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Palau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Saint_Pierre_and_Miquelon&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Uzbekistan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Representative_democracy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Gibraltar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/East_Timor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Saint_Lucia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Pakistan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Emirate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Afghanistan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Cura%C3%A7ao&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Greenland&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Oman&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Turkey&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Absolute_monarchy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Eswatini&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Jordan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Spain&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/British_Virgin_Islands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/France&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Eritrea&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Federalism&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Belgium&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Zambia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Belize&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Italy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Bangladesh&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Estonia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/New_Zealand&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Angola&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Elective_monarchy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Vatican_City&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Military_dictatorship&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Bulgaria&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Self-government&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Saint_Helena,_Ascension_and_Tristan_da_Cunha&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/United_Kingdom&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Kazakhstan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Tuvalu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Syria&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Colombia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Peru&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Portugal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Kiribati&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Mozambique&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Poland&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Sierra_Leone&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Iran&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Laos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Provisional_government&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Yemen&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Singapore&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Montenegro&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Philippines&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Saint_Vincent_and_the_Grenadines&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Macau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Anguilla&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Benin&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Czech_Republic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Uruguay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Azerbaijan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Nicaragua&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Mauritius&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Mexico&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Tanzania&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Bhutan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Panama&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Thailand&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Burkina_Faso&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Cambodia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Barbados&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Sint_Maarten&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Finland&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Grenada&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Bermuda&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Jamaica&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Paraguay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Constitution&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/American_Samoa&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Hungary&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Tokelau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Namibia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Lebanon&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Romania&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/New_Caledonia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Armenia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Kuwait&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/President_(government_title)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Maldives&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Haiti&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Brazil&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Ethnic_federalism#Ethiopia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Ethiopia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Denmark&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Dominica&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Unitary_parliamentary_republic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Greece&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Antigua_and_Barbuda&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Chile&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Constitution_of_India&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/India&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Egypt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Morocco&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Germany&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Malaysia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Sri_Lanka&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Mauritania&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Moldova&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Islamic_state&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Brunei&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Tonga&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Trinidad_and_Tobago&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Samoa&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Central_African_Republic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Senegal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Parliamentary&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Liechtenstein&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Mongolia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Libya&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Fiji&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Belarus&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Republic_of_Ireland&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Ghana&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Chad&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Niger&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Albania&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Solomon_Islands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Croatia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Directorial_system&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/South_Africa&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Guatemala&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Iceland&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Netherlands&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Kenya&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Lithuania&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/North_Macedonia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Federated_States_of_Micronesia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Republic_of_the_Congo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Algeria&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Bolivia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Kyrgyzstan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/List_of_countries_by_system_of_government#Assembly-independent_republican_systems&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Suriname&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Saudi_Arabia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Honduras&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Norway&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/South_Sudan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Zimbabwe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Bahrain&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Madagascar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/South_Korea&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Ivory_Coast&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Bosnia_and_Herzegovina&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Slovakia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Federal_parliamentary_republic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Iraq&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://en.wikipedia.org/Indonesia&gt;</t>
   </si>
 </sst>
 </file>
@@ -3292,7 +4062,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D2242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+    <sheetView topLeftCell="A463" workbookViewId="0">
       <selection activeCell="B645" sqref="B645"/>
     </sheetView>
   </sheetViews>
@@ -34693,6 +35463,3051 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B234B-92CF-4B90-8B47-820F66525F5C}">
+  <dimension ref="A2:D217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C5" t="s">
+        <v>968</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>960</v>
+      </c>
+      <c r="B6" t="s">
+        <v>961</v>
+      </c>
+      <c r="C6" t="s">
+        <v>969</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>970</v>
+      </c>
+      <c r="B7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C7" t="s">
+        <v>971</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>972</v>
+      </c>
+      <c r="B8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C8" t="s">
+        <v>973</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B9" t="s">
+        <v>961</v>
+      </c>
+      <c r="C9" t="s">
+        <v>975</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>976</v>
+      </c>
+      <c r="B10" t="s">
+        <v>961</v>
+      </c>
+      <c r="C10" t="s">
+        <v>977</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>978</v>
+      </c>
+      <c r="B11" t="s">
+        <v>961</v>
+      </c>
+      <c r="C11" t="s">
+        <v>979</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>960</v>
+      </c>
+      <c r="B12" t="s">
+        <v>961</v>
+      </c>
+      <c r="C12" t="s">
+        <v>980</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>970</v>
+      </c>
+      <c r="B13" t="s">
+        <v>961</v>
+      </c>
+      <c r="C13" t="s">
+        <v>981</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>982</v>
+      </c>
+      <c r="B14" t="s">
+        <v>961</v>
+      </c>
+      <c r="C14" t="s">
+        <v>983</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>984</v>
+      </c>
+      <c r="B15" t="s">
+        <v>961</v>
+      </c>
+      <c r="C15" t="s">
+        <v>985</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>960</v>
+      </c>
+      <c r="B16" t="s">
+        <v>961</v>
+      </c>
+      <c r="C16" t="s">
+        <v>986</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>960</v>
+      </c>
+      <c r="B17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C17" t="s">
+        <v>987</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>965</v>
+      </c>
+      <c r="B18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C18" t="s">
+        <v>988</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>989</v>
+      </c>
+      <c r="B19" t="s">
+        <v>961</v>
+      </c>
+      <c r="C19" t="s">
+        <v>990</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>960</v>
+      </c>
+      <c r="B20" t="s">
+        <v>961</v>
+      </c>
+      <c r="C20" t="s">
+        <v>991</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>974</v>
+      </c>
+      <c r="B21" t="s">
+        <v>961</v>
+      </c>
+      <c r="C21" t="s">
+        <v>992</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>960</v>
+      </c>
+      <c r="B22" t="s">
+        <v>961</v>
+      </c>
+      <c r="C22" t="s">
+        <v>993</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>960</v>
+      </c>
+      <c r="B23" t="s">
+        <v>961</v>
+      </c>
+      <c r="C23" t="s">
+        <v>994</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>984</v>
+      </c>
+      <c r="B24" t="s">
+        <v>961</v>
+      </c>
+      <c r="C24" t="s">
+        <v>995</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>960</v>
+      </c>
+      <c r="B25" t="s">
+        <v>961</v>
+      </c>
+      <c r="C25" t="s">
+        <v>996</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>974</v>
+      </c>
+      <c r="B26" t="s">
+        <v>961</v>
+      </c>
+      <c r="C26" t="s">
+        <v>997</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>982</v>
+      </c>
+      <c r="B27" t="s">
+        <v>961</v>
+      </c>
+      <c r="C27" t="s">
+        <v>998</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>960</v>
+      </c>
+      <c r="B28" t="s">
+        <v>961</v>
+      </c>
+      <c r="C28" t="s">
+        <v>999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>961</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>960</v>
+      </c>
+      <c r="B30" t="s">
+        <v>961</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>967</v>
+      </c>
+      <c r="B31" t="s">
+        <v>961</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>976</v>
+      </c>
+      <c r="B33" t="s">
+        <v>961</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>960</v>
+      </c>
+      <c r="B34" t="s">
+        <v>961</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>976</v>
+      </c>
+      <c r="B35" t="s">
+        <v>961</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>960</v>
+      </c>
+      <c r="B36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>960</v>
+      </c>
+      <c r="B37" t="s">
+        <v>961</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>960</v>
+      </c>
+      <c r="B38" t="s">
+        <v>961</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>982</v>
+      </c>
+      <c r="B39" t="s">
+        <v>961</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>970</v>
+      </c>
+      <c r="B40" t="s">
+        <v>961</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>976</v>
+      </c>
+      <c r="B41" t="s">
+        <v>961</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B42" t="s">
+        <v>961</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B43" t="s">
+        <v>961</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>961</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>974</v>
+      </c>
+      <c r="B45" t="s">
+        <v>961</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>976</v>
+      </c>
+      <c r="B46" t="s">
+        <v>961</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>976</v>
+      </c>
+      <c r="B47" t="s">
+        <v>961</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>963</v>
+      </c>
+      <c r="B48" t="s">
+        <v>961</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>984</v>
+      </c>
+      <c r="B49" t="s">
+        <v>961</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B50" t="s">
+        <v>961</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B51" t="s">
+        <v>961</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>965</v>
+      </c>
+      <c r="B52" t="s">
+        <v>961</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>970</v>
+      </c>
+      <c r="B53" t="s">
+        <v>961</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>970</v>
+      </c>
+      <c r="B54" t="s">
+        <v>961</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>960</v>
+      </c>
+      <c r="B55" t="s">
+        <v>961</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B56" t="s">
+        <v>961</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>984</v>
+      </c>
+      <c r="B57" t="s">
+        <v>961</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B58" t="s">
+        <v>961</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>984</v>
+      </c>
+      <c r="B59" t="s">
+        <v>961</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>960</v>
+      </c>
+      <c r="B60" t="s">
+        <v>961</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>984</v>
+      </c>
+      <c r="B61" t="s">
+        <v>961</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B62" t="s">
+        <v>961</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>976</v>
+      </c>
+      <c r="B63" t="s">
+        <v>961</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>965</v>
+      </c>
+      <c r="B64" t="s">
+        <v>961</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>967</v>
+      </c>
+      <c r="B65" t="s">
+        <v>961</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>960</v>
+      </c>
+      <c r="B66" t="s">
+        <v>961</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>965</v>
+      </c>
+      <c r="B67" t="s">
+        <v>961</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>974</v>
+      </c>
+      <c r="B68" t="s">
+        <v>961</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>960</v>
+      </c>
+      <c r="B69" t="s">
+        <v>961</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>984</v>
+      </c>
+      <c r="B70" t="s">
+        <v>961</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>974</v>
+      </c>
+      <c r="B71" t="s">
+        <v>961</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>974</v>
+      </c>
+      <c r="B72" t="s">
+        <v>961</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>960</v>
+      </c>
+      <c r="B73" t="s">
+        <v>961</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B74" t="s">
+        <v>961</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>972</v>
+      </c>
+      <c r="B75" t="s">
+        <v>961</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>965</v>
+      </c>
+      <c r="B76" t="s">
+        <v>961</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>960</v>
+      </c>
+      <c r="B77" t="s">
+        <v>961</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>974</v>
+      </c>
+      <c r="B78" t="s">
+        <v>961</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>974</v>
+      </c>
+      <c r="B79" t="s">
+        <v>961</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>972</v>
+      </c>
+      <c r="B80" t="s">
+        <v>961</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>976</v>
+      </c>
+      <c r="B81" t="s">
+        <v>961</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B82" t="s">
+        <v>961</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>960</v>
+      </c>
+      <c r="B83" t="s">
+        <v>961</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>970</v>
+      </c>
+      <c r="B84" t="s">
+        <v>961</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>965</v>
+      </c>
+      <c r="B85" t="s">
+        <v>961</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B86" t="s">
+        <v>961</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>970</v>
+      </c>
+      <c r="B87" t="s">
+        <v>961</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>972</v>
+      </c>
+      <c r="B88" t="s">
+        <v>961</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>960</v>
+      </c>
+      <c r="B89" t="s">
+        <v>961</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>976</v>
+      </c>
+      <c r="B90" t="s">
+        <v>961</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B91" t="s">
+        <v>961</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>960</v>
+      </c>
+      <c r="B92" t="s">
+        <v>961</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>984</v>
+      </c>
+      <c r="B93" t="s">
+        <v>961</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>984</v>
+      </c>
+      <c r="B94" t="s">
+        <v>961</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>963</v>
+      </c>
+      <c r="B95" t="s">
+        <v>961</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>960</v>
+      </c>
+      <c r="B96" t="s">
+        <v>961</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B97" t="s">
+        <v>961</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>974</v>
+      </c>
+      <c r="B98" t="s">
+        <v>961</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>960</v>
+      </c>
+      <c r="B99" t="s">
+        <v>961</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>965</v>
+      </c>
+      <c r="B100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>965</v>
+      </c>
+      <c r="B101" t="s">
+        <v>961</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>965</v>
+      </c>
+      <c r="B102" t="s">
+        <v>961</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>960</v>
+      </c>
+      <c r="B103" t="s">
+        <v>961</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B104" t="s">
+        <v>961</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B105" t="s">
+        <v>961</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>965</v>
+      </c>
+      <c r="B106" t="s">
+        <v>961</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B107" t="s">
+        <v>961</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>984</v>
+      </c>
+      <c r="B108" t="s">
+        <v>961</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>974</v>
+      </c>
+      <c r="B109" t="s">
+        <v>961</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>984</v>
+      </c>
+      <c r="B110" t="s">
+        <v>961</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>963</v>
+      </c>
+      <c r="B111" t="s">
+        <v>961</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>974</v>
+      </c>
+      <c r="B112" t="s">
+        <v>961</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>974</v>
+      </c>
+      <c r="B113" t="s">
+        <v>961</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>963</v>
+      </c>
+      <c r="B114" t="s">
+        <v>961</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>960</v>
+      </c>
+      <c r="B115" t="s">
+        <v>961</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>963</v>
+      </c>
+      <c r="B116" t="s">
+        <v>961</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>965</v>
+      </c>
+      <c r="B117" t="s">
+        <v>961</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>976</v>
+      </c>
+      <c r="B118" t="s">
+        <v>961</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>976</v>
+      </c>
+      <c r="B119" t="s">
+        <v>961</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>960</v>
+      </c>
+      <c r="B120" t="s">
+        <v>961</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B121" t="s">
+        <v>961</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>960</v>
+      </c>
+      <c r="B122" t="s">
+        <v>961</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>960</v>
+      </c>
+      <c r="B123" t="s">
+        <v>961</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>976</v>
+      </c>
+      <c r="B124" t="s">
+        <v>961</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>984</v>
+      </c>
+      <c r="B125" t="s">
+        <v>961</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B126" t="s">
+        <v>961</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>984</v>
+      </c>
+      <c r="B127" t="s">
+        <v>961</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>976</v>
+      </c>
+      <c r="B128" t="s">
+        <v>961</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>965</v>
+      </c>
+      <c r="B129" t="s">
+        <v>961</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>976</v>
+      </c>
+      <c r="B130" t="s">
+        <v>961</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>963</v>
+      </c>
+      <c r="B131" t="s">
+        <v>961</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>974</v>
+      </c>
+      <c r="B132" t="s">
+        <v>961</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>960</v>
+      </c>
+      <c r="B133" t="s">
+        <v>961</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B134" t="s">
+        <v>961</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>976</v>
+      </c>
+      <c r="B135" t="s">
+        <v>961</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>984</v>
+      </c>
+      <c r="B136" t="s">
+        <v>961</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>976</v>
+      </c>
+      <c r="B137" t="s">
+        <v>961</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>984</v>
+      </c>
+      <c r="B138" t="s">
+        <v>961</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B139" t="s">
+        <v>961</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B140" t="s">
+        <v>961</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>965</v>
+      </c>
+      <c r="B141" t="s">
+        <v>961</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>970</v>
+      </c>
+      <c r="B142" t="s">
+        <v>961</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>965</v>
+      </c>
+      <c r="B143" t="s">
+        <v>961</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>960</v>
+      </c>
+      <c r="B144" t="s">
+        <v>961</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>984</v>
+      </c>
+      <c r="B145" t="s">
+        <v>961</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>970</v>
+      </c>
+      <c r="B146" t="s">
+        <v>961</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>976</v>
+      </c>
+      <c r="B147" t="s">
+        <v>961</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B148" t="s">
+        <v>961</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>965</v>
+      </c>
+      <c r="B149" t="s">
+        <v>961</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>970</v>
+      </c>
+      <c r="B150" t="s">
+        <v>961</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B151" t="s">
+        <v>961</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>965</v>
+      </c>
+      <c r="B152" t="s">
+        <v>961</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>960</v>
+      </c>
+      <c r="B153" t="s">
+        <v>961</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>984</v>
+      </c>
+      <c r="B154" t="s">
+        <v>961</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>965</v>
+      </c>
+      <c r="B155" t="s">
+        <v>961</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>960</v>
+      </c>
+      <c r="B156" t="s">
+        <v>961</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B157" t="s">
+        <v>961</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>974</v>
+      </c>
+      <c r="B158" t="s">
+        <v>961</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>976</v>
+      </c>
+      <c r="B159" t="s">
+        <v>961</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B160" t="s">
+        <v>961</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>970</v>
+      </c>
+      <c r="B161" t="s">
+        <v>961</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>960</v>
+      </c>
+      <c r="B162" t="s">
+        <v>961</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B163" t="s">
+        <v>961</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>970</v>
+      </c>
+      <c r="B164" t="s">
+        <v>961</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>976</v>
+      </c>
+      <c r="B165" t="s">
+        <v>961</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B166" t="s">
+        <v>961</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>960</v>
+      </c>
+      <c r="B167" t="s">
+        <v>961</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>960</v>
+      </c>
+      <c r="B168" t="s">
+        <v>961</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>965</v>
+      </c>
+      <c r="B169" t="s">
+        <v>961</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>970</v>
+      </c>
+      <c r="B170" t="s">
+        <v>961</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>960</v>
+      </c>
+      <c r="B171" t="s">
+        <v>961</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>960</v>
+      </c>
+      <c r="B172" t="s">
+        <v>961</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B173" t="s">
+        <v>961</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B174" t="s">
+        <v>961</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>984</v>
+      </c>
+      <c r="B175" t="s">
+        <v>961</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>965</v>
+      </c>
+      <c r="B176" t="s">
+        <v>961</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>965</v>
+      </c>
+      <c r="B177" t="s">
+        <v>961</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>976</v>
+      </c>
+      <c r="B178" t="s">
+        <v>961</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>976</v>
+      </c>
+      <c r="B179" t="s">
+        <v>961</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B180" t="s">
+        <v>961</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>960</v>
+      </c>
+      <c r="B181" t="s">
+        <v>961</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B182" t="s">
+        <v>961</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>965</v>
+      </c>
+      <c r="B183" t="s">
+        <v>961</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>976</v>
+      </c>
+      <c r="B184" t="s">
+        <v>961</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B185" t="s">
+        <v>961</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>976</v>
+      </c>
+      <c r="B186" t="s">
+        <v>961</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B187" t="s">
+        <v>961</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>960</v>
+      </c>
+      <c r="B188" t="s">
+        <v>961</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>965</v>
+      </c>
+      <c r="B189" t="s">
+        <v>961</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>960</v>
+      </c>
+      <c r="B190" t="s">
+        <v>961</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>965</v>
+      </c>
+      <c r="B191" t="s">
+        <v>961</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B192" t="s">
+        <v>961</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>976</v>
+      </c>
+      <c r="B193" t="s">
+        <v>961</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>965</v>
+      </c>
+      <c r="B194" t="s">
+        <v>961</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>960</v>
+      </c>
+      <c r="B195" t="s">
+        <v>961</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>976</v>
+      </c>
+      <c r="B196" t="s">
+        <v>961</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>960</v>
+      </c>
+      <c r="B197" t="s">
+        <v>961</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>965</v>
+      </c>
+      <c r="B198" t="s">
+        <v>961</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B199" t="s">
+        <v>961</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B200" t="s">
+        <v>961</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>960</v>
+      </c>
+      <c r="B201" t="s">
+        <v>961</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>976</v>
+      </c>
+      <c r="B202" t="s">
+        <v>961</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>976</v>
+      </c>
+      <c r="B203" t="s">
+        <v>961</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D203" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B204" t="s">
+        <v>961</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B205" t="s">
+        <v>961</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>976</v>
+      </c>
+      <c r="B206" t="s">
+        <v>961</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>960</v>
+      </c>
+      <c r="B207" t="s">
+        <v>961</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D207" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B208" t="s">
+        <v>961</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>976</v>
+      </c>
+      <c r="B209" t="s">
+        <v>961</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D209" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B210" t="s">
+        <v>961</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>974</v>
+      </c>
+      <c r="B211" t="s">
+        <v>961</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>976</v>
+      </c>
+      <c r="B212" t="s">
+        <v>961</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>976</v>
+      </c>
+      <c r="B213" t="s">
+        <v>961</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B214" t="s">
+        <v>961</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>965</v>
+      </c>
+      <c r="B215" t="s">
+        <v>961</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D215" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B216" t="s">
+        <v>961</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>976</v>
+      </c>
+      <c r="B217" t="s">
+        <v>961</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D217" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D217" xr:uid="{223B234B-92CF-4B90-8B47-820F66525F5C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CD1C35-52ED-4780-9DEA-6B77EC788F02}">
   <dimension ref="A2:D221"/>
   <sheetViews>
@@ -37800,7 +41615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5853D39F-12DB-42D8-B2F0-025DA468E892}">
   <dimension ref="A2:D140"/>
   <sheetViews>
@@ -39771,7 +43586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4945062E-7900-477A-8788-F73D2718CE70}">
   <dimension ref="A2:D217"/>
   <sheetViews>
